--- a/biology/Zoologie/Hyperolius_platyceps/Hyperolius_platyceps.xlsx
+++ b/biology/Zoologie/Hyperolius_platyceps/Hyperolius_platyceps.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Hyperolius platyceps est une espèce d'amphibiens de la famille des Hyperoliidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Hyperolius platyceps est une espèce d'amphibiens de la famille des Hyperoliidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Cette espèce se rencontre[1],[2] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Cette espèce se rencontre, :
 dans le sud du Cameroun ;
 dans l'extrême Sud-Ouest de la République centrafricaine ;
 en Guinée équatoriale ;
@@ -548,13 +562,15 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Hyperolius platyceps mesure de 25 à 27 mm pour les mâles et de 30 à 32 mm pour les femelles. Son dos, aux motifs variables, permet de distinguer deux livrées différentes :
 un dos de couleur blanc argenté avec deux grandes taches donnant un motif en forme de sablier dans le haut du dos et une autre tache au niveau lombaire ;
 un dos de couleur sombre avec une bande blanc argenté ou crème sur les côtés.
 En République du Congo, quelques mâles et la majorité des femelles sont de couleur verte avec une ligne longitudinale claire.
-Cette diversité a été source de confusion entre différentes espèces (H. ademetzi, H. langi, H. major ou H. kuligae) ce que Amiet a clarifié[3]. Par ailleurs il a observé que le chant de cette espèce ainsi que son habitat étaient similaires à ceux de H. concolor. Toutefois il semblerait que ces espèces s'excluent mutuellement et que leur distribution ne se chevauchent pas dans l'ouest du Cameroun.
+Cette diversité a été source de confusion entre différentes espèces (H. ademetzi, H. langi, H. major ou H. kuligae) ce que Amiet a clarifié. Par ailleurs il a observé que le chant de cette espèce ainsi que son habitat étaient similaires à ceux de H. concolor. Toutefois il semblerait que ces espèces s'excluent mutuellement et que leur distribution ne se chevauchent pas dans l'ouest du Cameroun.
 </t>
         </is>
       </c>
@@ -583,7 +599,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Boulenger, 1900 : A list of the batrachians and reptiles of the Gaboon (French Congo), with descriptions of new genera and species. Proceedings of the Zoological Society of London, vol. 1900, p. 433-456 (texte intégral).</t>
         </is>
